--- a/www.eia.gov/electricity/monthly/xls/table_4_02continued.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_4_02continued.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
-  <si>
-    <t>Table 4.2. Receipts, Average Cost, and Quality of Fossil Fuels: Electric Utilities, 2006 - October 2016 (continued)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+  <si>
+    <t>Table 4.2. Receipts, Average Cost, and Quality of Fossil Fuels: Electric Utilities, 2006 - November 2016 (continued)</t>
   </si>
   <si>
     <t/>
@@ -142,7 +142,7 @@
     <t>Year to Date</t>
   </si>
   <si>
-    <t>Rolling 12 Months Ending in October</t>
+    <t>Rolling 12 Months Ending in November</t>
   </si>
   <si>
     <t>Displayed values of zero may represent small values that round to zero.
@@ -1111,7 +1111,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -3109,270 +3109,311 @@
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="12">
+        <v>7871</v>
+      </c>
+      <c r="C53" s="12">
+        <v>279</v>
+      </c>
+      <c r="D53" s="13">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="E53" s="13">
+        <v>62.85</v>
+      </c>
+      <c r="F53" s="13">
+        <v>5.74</v>
+      </c>
+      <c r="G53" s="14">
+        <v>116.3</v>
+      </c>
+      <c r="H53" s="12">
+        <v>338187</v>
+      </c>
+      <c r="I53" s="12">
+        <v>326505</v>
+      </c>
+      <c r="J53" s="13">
+        <v>3.37</v>
+      </c>
+      <c r="K53" s="13">
+        <v>3.49</v>
+      </c>
+      <c r="L53" s="14">
+        <v>98</v>
+      </c>
+      <c r="M53" s="13">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="11">
-        <v>2014</v>
-      </c>
-      <c r="B54" s="12">
-        <v>99420</v>
-      </c>
-      <c r="C54" s="12">
-        <v>3495</v>
-      </c>
-      <c r="D54" s="13">
-        <v>1.91</v>
-      </c>
-      <c r="E54" s="13">
-        <v>54.21</v>
-      </c>
-      <c r="F54" s="13">
-        <v>5.59</v>
-      </c>
-      <c r="G54" s="14">
-        <v>121.4</v>
-      </c>
-      <c r="H54" s="12">
-        <v>3285331</v>
-      </c>
-      <c r="I54" s="12">
-        <v>3199215</v>
-      </c>
-      <c r="J54" s="13">
-        <v>5.26</v>
-      </c>
-      <c r="K54" s="13">
-        <v>5.4</v>
-      </c>
-      <c r="L54" s="14">
-        <v>96.8</v>
-      </c>
-      <c r="M54" s="13">
-        <v>3.18</v>
-      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B55" s="12">
-        <v>97356</v>
+        <v>109499</v>
       </c>
       <c r="C55" s="12">
-        <v>3418</v>
+        <v>3849</v>
       </c>
       <c r="D55" s="13">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="E55" s="13">
-        <v>52.37</v>
+        <v>53.69</v>
       </c>
       <c r="F55" s="13">
-        <v>5.14</v>
+        <v>5.58</v>
       </c>
       <c r="G55" s="14">
-        <v>125.8</v>
+        <v>123.8</v>
       </c>
       <c r="H55" s="12">
-        <v>3966269</v>
+        <v>3573515</v>
       </c>
       <c r="I55" s="12">
-        <v>3837110</v>
+        <v>3478771</v>
       </c>
       <c r="J55" s="13">
-        <v>3.63</v>
+        <v>5.22</v>
       </c>
       <c r="K55" s="13">
-        <v>3.75</v>
+        <v>5.36</v>
       </c>
       <c r="L55" s="14">
-        <v>96.1</v>
+        <v>96.8</v>
       </c>
       <c r="M55" s="13">
-        <v>2.71</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
+        <v>2015</v>
+      </c>
+      <c r="B56" s="12">
+        <v>107437</v>
+      </c>
+      <c r="C56" s="12">
+        <v>3772</v>
+      </c>
+      <c r="D56" s="13">
+        <v>1.8</v>
+      </c>
+      <c r="E56" s="13">
+        <v>51.37</v>
+      </c>
+      <c r="F56" s="13">
+        <v>5.19</v>
+      </c>
+      <c r="G56" s="14">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="H56" s="12">
+        <v>4331629</v>
+      </c>
+      <c r="I56" s="12">
+        <v>4191468</v>
+      </c>
+      <c r="J56" s="13">
+        <v>3.57</v>
+      </c>
+      <c r="K56" s="13">
+        <v>3.69</v>
+      </c>
+      <c r="L56" s="14">
+        <v>96.2</v>
+      </c>
+      <c r="M56" s="13">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
         <v>2016</v>
       </c>
-      <c r="B56" s="12">
-        <v>83818</v>
-      </c>
-      <c r="C56" s="12">
-        <v>2976</v>
-      </c>
-      <c r="D56" s="13">
-        <v>1.41</v>
-      </c>
-      <c r="E56" s="13">
-        <v>39.61</v>
-      </c>
-      <c r="F56" s="13">
-        <v>5.35</v>
-      </c>
-      <c r="G56" s="14">
-        <v>101.5</v>
-      </c>
-      <c r="H56" s="12">
-        <v>4363873</v>
-      </c>
-      <c r="I56" s="12">
-        <v>4220826</v>
-      </c>
-      <c r="J56" s="13">
-        <v>3.06</v>
-      </c>
-      <c r="K56" s="13">
-        <v>3.16</v>
-      </c>
-      <c r="L56" s="14">
-        <v>96.4</v>
-      </c>
-      <c r="M56" s="13">
+      <c r="B57" s="12">
+        <v>91688</v>
+      </c>
+      <c r="C57" s="12">
+        <v>3254</v>
+      </c>
+      <c r="D57" s="13">
+        <v>1.48</v>
+      </c>
+      <c r="E57" s="13">
+        <v>41.6</v>
+      </c>
+      <c r="F57" s="13">
+        <v>5.38</v>
+      </c>
+      <c r="G57" s="14">
+        <v>102.6</v>
+      </c>
+      <c r="H57" s="12">
+        <v>4702060</v>
+      </c>
+      <c r="I57" s="12">
+        <v>4547331</v>
+      </c>
+      <c r="J57" s="13">
+        <v>3.08</v>
+      </c>
+      <c r="K57" s="13">
+        <v>3.18</v>
+      </c>
+      <c r="L57" s="14">
+        <v>96.5</v>
+      </c>
+      <c r="M57" s="13">
         <v>2.52</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="11">
-        <v>2015</v>
-      </c>
-      <c r="B58" s="12">
-        <v>121729</v>
-      </c>
-      <c r="C58" s="12">
-        <v>4271</v>
-      </c>
-      <c r="D58" s="13">
-        <v>1.83</v>
-      </c>
-      <c r="E58" s="13">
-        <v>52.29</v>
-      </c>
-      <c r="F58" s="13">
-        <v>5.19</v>
-      </c>
-      <c r="G58" s="14">
-        <v>130.19999999999999</v>
-      </c>
-      <c r="H58" s="12">
-        <v>4557487</v>
-      </c>
-      <c r="I58" s="12">
-        <v>4410491</v>
-      </c>
-      <c r="J58" s="13">
-        <v>3.76</v>
-      </c>
-      <c r="K58" s="13">
-        <v>3.89</v>
-      </c>
-      <c r="L58" s="14">
-        <v>96.2</v>
-      </c>
-      <c r="M58" s="13">
-        <v>2.76</v>
-      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
+        <v>2015</v>
+      </c>
+      <c r="B59" s="12">
+        <v>121731</v>
+      </c>
+      <c r="C59" s="12">
+        <v>4272</v>
+      </c>
+      <c r="D59" s="13">
+        <v>1.81</v>
+      </c>
+      <c r="E59" s="13">
+        <v>51.72</v>
+      </c>
+      <c r="F59" s="13">
+        <v>5.21</v>
+      </c>
+      <c r="G59" s="14">
+        <v>132.19999999999999</v>
+      </c>
+      <c r="H59" s="12">
+        <v>4634663</v>
+      </c>
+      <c r="I59" s="12">
+        <v>4485293</v>
+      </c>
+      <c r="J59" s="13">
+        <v>3.64</v>
+      </c>
+      <c r="K59" s="13">
+        <v>3.76</v>
+      </c>
+      <c r="L59" s="14">
+        <v>96.2</v>
+      </c>
+      <c r="M59" s="13">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="11">
         <v>2016</v>
       </c>
-      <c r="B59" s="12">
-        <v>102391</v>
-      </c>
-      <c r="C59" s="12">
-        <v>3628</v>
-      </c>
-      <c r="D59" s="13">
-        <v>1.41</v>
-      </c>
-      <c r="E59" s="13">
-        <v>39.729999999999997</v>
-      </c>
-      <c r="F59" s="13">
+      <c r="B60" s="12">
+        <v>100180</v>
+      </c>
+      <c r="C60" s="12">
+        <v>3552</v>
+      </c>
+      <c r="D60" s="13">
+        <v>1.46</v>
+      </c>
+      <c r="E60" s="13">
+        <v>41.35</v>
+      </c>
+      <c r="F60" s="13">
         <v>5.41</v>
       </c>
-      <c r="G59" s="14">
-        <v>108.4</v>
-      </c>
-      <c r="H59" s="12">
-        <v>5115352</v>
-      </c>
-      <c r="I59" s="12">
-        <v>4948756</v>
-      </c>
-      <c r="J59" s="13">
-        <v>3.04</v>
-      </c>
-      <c r="K59" s="13">
-        <v>3.15</v>
-      </c>
-      <c r="L59" s="14">
-        <v>96.3</v>
-      </c>
-      <c r="M59" s="13">
-        <v>2.5099999999999998</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="351.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="15" t="s">
+      <c r="G60" s="14">
+        <v>104.3</v>
+      </c>
+      <c r="H60" s="12">
+        <v>5088179</v>
+      </c>
+      <c r="I60" s="12">
+        <v>4920903</v>
+      </c>
+      <c r="J60" s="13">
+        <v>3.07</v>
+      </c>
+      <c r="K60" s="13">
+        <v>3.17</v>
+      </c>
+      <c r="L60" s="14">
+        <v>96.4</v>
+      </c>
+      <c r="M60" s="13">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="351.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A60:M60"/>
+    <mergeCell ref="A61:M61"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="A16:M16"/>
     <mergeCell ref="A29:M29"/>
     <mergeCell ref="A42:M42"/>
-    <mergeCell ref="A53:M53"/>
-    <mergeCell ref="A57:M57"/>
+    <mergeCell ref="A54:M54"/>
+    <mergeCell ref="A58:M58"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:L2"/>
